--- a/data/file/04培训测评批量查询模板.xlsx
+++ b/data/file/04培训测评批量查询模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>VER:1.0.1</t>
   </si>
@@ -109,67 +109,28 @@
     </r>
   </si>
   <si>
-    <t>徐伟</t>
+    <t>邓辉</t>
   </si>
   <si>
     <t>身份证</t>
   </si>
   <si>
-    <t>513822199102084854</t>
-  </si>
-  <si>
-    <t>李小凤</t>
-  </si>
-  <si>
-    <t>510922198903067462</t>
-  </si>
-  <si>
-    <t>阮一轩</t>
-  </si>
-  <si>
-    <t>510105199110082026</t>
-  </si>
-  <si>
-    <t>廖国雄</t>
-  </si>
-  <si>
-    <t>510125199107130010</t>
-  </si>
-  <si>
-    <t>彭敬钟</t>
-  </si>
-  <si>
-    <t>513701199612106219</t>
-  </si>
-  <si>
-    <t>罗鸿阳</t>
-  </si>
-  <si>
-    <t>510521199305293837</t>
-  </si>
-  <si>
-    <t>喻超</t>
-  </si>
-  <si>
-    <t>513701199003197426</t>
-  </si>
-  <si>
-    <t>张威</t>
-  </si>
-  <si>
-    <t>220106198603039213</t>
-  </si>
-  <si>
-    <t>程燕</t>
-  </si>
-  <si>
-    <t>510184198707245327</t>
-  </si>
-  <si>
-    <t>肖雪雯</t>
-  </si>
-  <si>
-    <t>510121198801093061</t>
+    <t>440101198803123654</t>
+  </si>
+  <si>
+    <t>431226199009250150</t>
+  </si>
+  <si>
+    <t>431226199009250177</t>
+  </si>
+  <si>
+    <t>431226199009250193</t>
+  </si>
+  <si>
+    <t>431225199212061818</t>
+  </si>
+  <si>
+    <t>431226199009250134</t>
   </si>
   <si>
     <t>End Mark(结束标记，勿删除)</t>
@@ -188,10 +149,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,25 +200,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -265,32 +247,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,52 +284,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,22 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,10 +339,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -403,6 +370,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,49 +394,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +478,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,31 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,73 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,28 +579,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,16 +628,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +668,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -715,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,137 +694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -886,11 +853,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1241,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1293,10 +1271,10 @@
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1305,13 +1283,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -1319,13 +1297,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -1333,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -1347,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -1361,101 +1339,68 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" ht="102" customHeight="1" spans="1:4">
-      <c r="A15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+    <row r="11" ht="102" customHeight="1" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B4 B14" name="区域2"/>
-    <protectedRange sqref="C4:D4 C14:D14" name="区域2_1"/>
+    <protectedRange sqref="B4 B10" name="区域2"/>
+    <protectedRange sqref="C4:D4 C10:D10" name="区域2_1"/>
   </protectedRanges>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master="">
+    <arrUserId title="区域2" rangeCreator="" othersAccessPermission="edit"/>
+    <arrUserId title="区域2_1" rangeCreator="" othersAccessPermission="edit"/>
+  </rangeList>
+</allowEditUser>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>